--- a/Exel_file/List.xlsx
+++ b/Exel_file/List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Клуб1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>19.12.21 12:00</t>
   </si>
@@ -75,18 +75,6 @@
   </si>
   <si>
     <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Lesnichenko</t>
-  </si>
-  <si>
-    <t>Alexey</t>
-  </si>
-  <si>
-    <t>Азовцев</t>
-  </si>
-  <si>
-    <t>Антон</t>
   </si>
 </sst>
 </file>
@@ -422,8 +410,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,14 +470,9 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
@@ -636,7 +619,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,14 +667,9 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
@@ -700,14 +678,9 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
@@ -738,14 +711,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
@@ -754,14 +722,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
@@ -857,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,42 +847,27 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -971,14 +919,9 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">

--- a/Exel_file/List.xlsx
+++ b/Exel_file/List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Клуб1" sheetId="1" r:id="rId1"/>
@@ -410,8 +410,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
